--- a/documents/外部設計書_生徒側の機能.xlsx
+++ b/documents/外部設計書_生徒側の機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939EEA55-4E97-4E16-A82E-C80DDEBB24D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291E1D79-2D42-4D40-B468-EA24BF916FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="615" windowWidth="17145" windowHeight="10455" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0Home" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1.0Home'!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6328,22 +6339,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>160114</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>18397</xdr:rowOff>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
+        <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2999CAD5-A7AB-4FE0-ADB0-586362B42BBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B5A7D8-2FCB-4B09-8F2B-B109B40F90DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6365,8 +6376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3126441" y="1303114"/>
-          <a:ext cx="4908177" cy="5192283"/>
+          <a:off x="3272117" y="1109382"/>
+          <a:ext cx="4772025" cy="5048250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6809,6 +6820,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC61C59F-4072-468D-A020-1A2EE43C7C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3922059" y="16764000"/>
+          <a:ext cx="4772025" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7135,7 +7196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
@@ -11909,7 +11970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34AB447-6A8A-446E-A0CE-44DF50540C03}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -16486,7 +16547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD193DB-B684-4D94-84D2-CF100DDB2202}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -21095,7 +21156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0A46D9-11C6-4A52-8B5D-165126CAC249}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
@@ -25668,7 +25729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6565ADE3-A5EC-416B-8DD9-E93C9FE8DF75}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="AJ27" sqref="AJ27"/>
     </sheetView>
   </sheetViews>
@@ -30290,8 +30351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F80361-02C6-4C09-9CFF-2537972C84F3}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:V2"/>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34897,7 +34958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D12492-A094-49F7-9460-4EAD872FD2C4}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
@@ -39511,8 +39572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8225A6-0422-41B7-A75B-A96247F08F74}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O89" sqref="O89"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documents/外部設計書_生徒側の機能.xlsx
+++ b/documents/外部設計書_生徒側の機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291E1D79-2D42-4D40-B468-EA24BF916FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D748665-B4E9-42AF-AFF1-F16B4243260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="615" windowWidth="17145" windowHeight="10455" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="405" windowWidth="17145" windowHeight="10455" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0Home" sheetId="1" r:id="rId1"/>
@@ -6820,56 +6820,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC61C59F-4072-468D-A020-1A2EE43C7C97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3922059" y="16764000"/>
-          <a:ext cx="4772025" cy="5048250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -39572,7 +39522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8225A6-0422-41B7-A75B-A96247F08F74}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
